--- a/RPL_V2/scripts/Вопросы Мистика.xlsx
+++ b/RPL_V2/scripts/Вопросы Мистика.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D09727-F288-4264-B4B8-6777F267C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Мифология" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="460">
   <si>
     <t>type</t>
   </si>
@@ -1393,11 +1392,29 @@
   <si>
     <t>Кровь и юмор</t>
   </si>
+  <si>
+    <t>Лорд Блейд</t>
+  </si>
+  <si>
+    <t>Лорд Грейс</t>
+  </si>
+  <si>
+    <t>Лорд Дорган</t>
+  </si>
+  <si>
+    <t>Елизавета II</t>
+  </si>
+  <si>
+    <t>Интервью с вампиром</t>
+  </si>
+  <si>
+    <t>Под покровом ночи</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1748,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1988,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2469,11 +2486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D023E9-DEC5-41EB-BCE0-BA8368FE17C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,692 +3470,767 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDC52CF-A892-4EA1-87C1-5EBDD868E786}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="126.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>385</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>385</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>332</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J6" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>317</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>316</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K11" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>342</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K19" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I20" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3</v>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>6</v>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>86</v>
@@ -4152,98 +4244,113 @@
       <c r="J24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K25" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
         <v>428</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
     </row>
@@ -4281,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4470,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4556,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
